--- a/meta/12-4-1.xlsx
+++ b/meta/12-4-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>12.4 К 2020 году добиться экологически рационального использования химических веществ и всех отходов на протяжении всего их жизненного цикла в соответствии с согласованными международными принципами и существенно сократить их попадание в воздух, воду и почву, чтобы свести к минимуму их негативное воздействие на здоровье людей и окружающую среду</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.4.1 Число сторон международных многосторонних экологических соглашений по опасным отходам и иным химических веществам, выполняющих свои обязательства и обязанности по передаче информации в соответствии с требованиями каждого соглашения </t>
   </si>
   <si>
     <t>ГАООСЛХ, Центр государственного регулирования в сфере охраны окружающей среды и экологической безопасности</t>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t xml:space="preserve">Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io </t>
+  </si>
+  <si>
+    <t>12.4.1 Число сторон международных многосторонних экологических соглашений по опасным отходам и иным химических веществам, выполняющих свои обязательства и обязанности по передаче информации в соответствии с требованиями каждого соглашения</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -622,7 +622,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
